--- a/models/previous/redundancies-identified-and-removed.xlsx
+++ b/models/previous/redundancies-identified-and-removed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/previous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED7C1F8-84EE-0944-9A4D-B1FE1BDFD5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D8C73-EF9C-B441-808F-438AD7F495F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" activeTab="1" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
+    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" activeTab="2" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="DATAPROPERTIES" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="690">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2068,6 +2068,36 @@
   </si>
   <si>
     <t xml:space="preserve">agrifeature </t>
+  </si>
+  <si>
+    <t>schema:name</t>
+  </si>
+  <si>
+    <t>foaf:name</t>
+  </si>
+  <si>
+    <t>fiware:name</t>
+  </si>
+  <si>
+    <t>name=fiware.name</t>
+  </si>
+  <si>
+    <t>schema.name</t>
+  </si>
+  <si>
+    <t>foaf.name</t>
+  </si>
+  <si>
+    <t>foaf:Person</t>
+  </si>
+  <si>
+    <t>schema:Person</t>
+  </si>
+  <si>
+    <t>Person=foaf.Person</t>
+  </si>
+  <si>
+    <t>schema.Person</t>
   </si>
 </sst>
 </file>
@@ -2454,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EB128B-BCC8-2A46-9D0E-E5668A263DC4}">
-  <dimension ref="A1:R410"/>
+  <dimension ref="A1:R414"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410"/>
+      <selection activeCell="A417" sqref="A416:A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6470,7 +6500,7 @@
         <v>133</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" ref="B322:B385" si="5">RIGHT(A322,LEN(A322)-FIND("#",A322))</f>
+        <f t="shared" ref="B322:B383" si="5">RIGHT(A322,LEN(A322)-FIND("#",A322))</f>
         <v>subCategory</v>
       </c>
       <c r="C322" t="s">
@@ -7574,6 +7604,30 @@
       </c>
       <c r="J410" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>680</v>
+      </c>
+      <c r="D412" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>681</v>
+      </c>
+      <c r="D413" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>682</v>
+      </c>
+      <c r="D414" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -7588,7 +7642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B5A7E7-A884-264A-AD0F-CCFE5649AA87}">
   <dimension ref="A1:H430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+    <sheetView topLeftCell="A407" workbookViewId="0">
       <selection activeCell="A426" sqref="A426"/>
     </sheetView>
   </sheetViews>
@@ -8014,7 +8068,7 @@
         <v>261</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B65" si="1">RIGHT(A34,LEN(A34)-FIND("#",A34))</f>
+        <f t="shared" ref="B34:B60" si="1">RIGHT(A34,LEN(A34)-FIND("#",A34))</f>
         <v>contains</v>
       </c>
       <c r="C34" t="s">
@@ -9613,7 +9667,7 @@
         <v>236</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" ref="B165:B196" si="5">RIGHT(A165,LEN(A165)-FIND("@",SUBSTITUTE(A165,"/","@",LEN(A165)-LEN(SUBSTITUTE(A165,"/",""))),1))</f>
+        <f t="shared" ref="B165:B182" si="5">RIGHT(A165,LEN(A165)-FIND("@",SUBSTITUTE(A165,"/","@",LEN(A165)-LEN(SUBSTITUTE(A165,"/",""))),1))</f>
         <v>hasProperty</v>
       </c>
       <c r="C165" t="s">
@@ -11020,7 +11074,7 @@
         <v>380</v>
       </c>
       <c r="B278" t="str">
-        <f t="shared" ref="B278:B309" si="10">RIGHT(A278,LEN(A278)-FIND("#",A278))</f>
+        <f t="shared" ref="B278:B297" si="10">RIGHT(A278,LEN(A278)-FIND("#",A278))</f>
         <v>location</v>
       </c>
       <c r="C278" t="s">
@@ -12460,7 +12514,7 @@
         <v>247</v>
       </c>
       <c r="B395" t="str">
-        <f t="shared" ref="B395:B426" si="14">RIGHT(A395,LEN(A395)-FIND("#",A395))</f>
+        <f t="shared" ref="B395:B403" si="14">RIGHT(A395,LEN(A395)-FIND("#",A395))</f>
         <v>solventQuantity</v>
       </c>
       <c r="C395" t="s">
@@ -12834,10 +12888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7380F84-9AFD-2E42-91E6-780C0FF043A8}">
-  <dimension ref="A1:H962"/>
+  <dimension ref="A1:H965"/>
   <sheetViews>
-    <sheetView topLeftCell="A941" workbookViewId="0">
-      <selection activeCell="C952" sqref="C952"/>
+    <sheetView tabSelected="1" topLeftCell="A941" workbookViewId="0">
+      <selection activeCell="B966" sqref="B966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17489,7 +17543,7 @@
         <v>516</v>
       </c>
       <c r="B381" t="str">
-        <f t="shared" ref="B381:B412" si="13">RIGHT(A381,LEN(A381)-FIND("#",A381))</f>
+        <f t="shared" ref="B381:B405" si="13">RIGHT(A381,LEN(A381)-FIND("#",A381))</f>
         <v>Holding</v>
       </c>
       <c r="C381" t="s">
@@ -18575,7 +18629,7 @@
         <v>571</v>
       </c>
       <c r="B471" t="str">
-        <f t="shared" ref="B471:B502" si="16">RIGHT(A471,LEN(A471)-FIND("#",A471))</f>
+        <f t="shared" ref="B471:B485" si="16">RIGHT(A471,LEN(A471)-FIND("#",A471))</f>
         <v>Measurement</v>
       </c>
       <c r="C471" t="s">
@@ -22226,7 +22280,7 @@
         <v>592</v>
       </c>
       <c r="B774" t="str">
-        <f t="shared" ref="B774:B837" si="24">RIGHT(A774,LEN(A774)-FIND("#",A774))</f>
+        <f t="shared" ref="B774:B812" si="24">RIGHT(A774,LEN(A774)-FIND("#",A774))</f>
         <v>SpatialObject</v>
       </c>
       <c r="C774" t="s">
@@ -23957,7 +24011,7 @@
         <v>599</v>
       </c>
       <c r="B917" t="str">
-        <f t="shared" ref="B917:B948" si="29">RIGHT(A917,LEN(A917)-FIND("#",A917))</f>
+        <f t="shared" ref="B917:B947" si="29">RIGHT(A917,LEN(A917)-FIND("#",A917))</f>
         <v>UnitOfMeasure</v>
       </c>
       <c r="C917" t="s">
@@ -24433,6 +24487,22 @@
       </c>
       <c r="D962" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>686</v>
+      </c>
+      <c r="B964" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>687</v>
+      </c>
+      <c r="B965" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
